--- a/downloaded_files/CMPS405_Lecture-35566.xlsx
+++ b/downloaded_files/CMPS405_Lecture-35566.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -85,15 +85,6 @@
   </x:si>
   <x:si>
     <x:t>Belal Mohamed Elseddik Ali</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220006</x:t>
-  </x:si>
-  <x:si>
-    <x:t>جمانه تيمور محمد البكرى احمد محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jomana Timor Mohamed Elbakry Ahmed Mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1220122</x:t>
@@ -461,7 +452,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -761,7 +752,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T36"/>
+  <x:dimension ref="A1:T35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1044,7 +1035,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.6649324884</x:v>
+        <x:v>45906.6642064468</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1076,7 +1067,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.6642064468</x:v>
+        <x:v>45906.6643488426</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1108,7 +1099,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.6643488426</x:v>
+        <x:v>45906.6656153935</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1140,7 +1131,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6656153935</x:v>
+        <x:v>45906.6648256944</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1172,7 +1163,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6648256944</x:v>
+        <x:v>45913.8477993056</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1204,7 +1195,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45913.8477993056</x:v>
+        <x:v>45906.7167660532</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1236,7 +1227,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.7167660532</x:v>
+        <x:v>45907.4145072569</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1268,7 +1259,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4145072569</x:v>
+        <x:v>45906.6651809838</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1300,7 +1291,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6651809838</x:v>
+        <x:v>45907.4170246528</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1332,7 +1323,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4170246528</x:v>
+        <x:v>45906.6644449074</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1364,7 +1355,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6644449074</x:v>
+        <x:v>45906.6656493403</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1396,7 +1387,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6656493403</x:v>
+        <x:v>45909.4149737269</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1428,7 +1419,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45909.4149737269</x:v>
+        <x:v>45906.6644042014</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1460,7 +1451,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6644042014</x:v>
+        <x:v>45906.5217770023</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1492,7 +1483,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.5217770023</x:v>
+        <x:v>45909.4696554051</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1524,7 +1515,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45909.4696554051</x:v>
+        <x:v>45906.6646315972</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1556,7 +1547,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6646315972</x:v>
+        <x:v>45906.6657920949</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1588,7 +1579,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6657920949</x:v>
+        <x:v>45909.4149788194</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1620,7 +1611,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45909.4149788194</x:v>
+        <x:v>45906.665478125</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1652,7 +1643,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.665478125</x:v>
+        <x:v>45909.4168616088</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1684,7 +1675,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45909.4168616088</x:v>
+        <x:v>45907.4144641204</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1716,7 +1707,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4144641204</x:v>
+        <x:v>45909.4289402778</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1748,7 +1739,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45909.4289402778</x:v>
+        <x:v>45907.4143820949</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1780,7 +1771,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4143820949</x:v>
+        <x:v>45907.4146748843</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1812,7 +1803,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4146748843</x:v>
+        <x:v>45909.4222365741</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1844,7 +1835,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45909.4222365741</x:v>
+        <x:v>45907.4143132292</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1876,7 +1867,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4143132292</x:v>
+        <x:v>45909.4162960648</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1908,7 +1899,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45909.4162960648</x:v>
+        <x:v>45913.7379726505</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1925,38 +1916,6 @@
       <x:c r="R35" s="2" t="s"/>
       <x:c r="S35" s="2" t="s"/>
       <x:c r="T35" s="2" t="s"/>
-    </x:row>
-    <x:row r="36" spans="1:20">
-      <x:c r="A36" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B36" s="2" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="C36" s="2" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="D36" s="2" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="E36" s="3">
-        <x:v>45913.7379726505</x:v>
-      </x:c>
-      <x:c r="F36" s="2" t="s"/>
-      <x:c r="G36" s="2" t="s"/>
-      <x:c r="H36" s="2" t="s"/>
-      <x:c r="I36" s="2" t="s"/>
-      <x:c r="J36" s="2" t="s"/>
-      <x:c r="K36" s="2" t="s"/>
-      <x:c r="L36" s="2" t="s"/>
-      <x:c r="M36" s="2" t="s"/>
-      <x:c r="N36" s="2" t="s"/>
-      <x:c r="O36" s="2" t="s"/>
-      <x:c r="P36" s="2" t="s"/>
-      <x:c r="Q36" s="2" t="s"/>
-      <x:c r="R36" s="2" t="s"/>
-      <x:c r="S36" s="2" t="s"/>
-      <x:c r="T36" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS405_Lecture-35566.xlsx
+++ b/downloaded_files/CMPS405_Lecture-35566.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -202,15 +202,6 @@
   </x:si>
   <x:si>
     <x:t>Omar Gamal Sani Ellethy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210155</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر محمد رءوف شاذلى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Mohamed Raouf</x:t>
   </x:si>
   <x:si>
     <x:t>1220309</x:t>
@@ -452,7 +443,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -752,7 +743,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T35"/>
+  <x:dimension ref="A1:T34"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1451,7 +1442,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.5217770023</x:v>
+        <x:v>45909.4696554051</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1483,7 +1474,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45909.4696554051</x:v>
+        <x:v>45906.6646315972</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1515,7 +1506,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6646315972</x:v>
+        <x:v>45927.6138481134</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1547,7 +1538,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6657920949</x:v>
+        <x:v>45909.4149788194</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1579,7 +1570,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45909.4149788194</x:v>
+        <x:v>45906.665478125</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1611,7 +1602,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.665478125</x:v>
+        <x:v>45927.4887689815</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1643,7 +1634,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45909.4168616088</x:v>
+        <x:v>45907.4144641204</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1675,7 +1666,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4144641204</x:v>
+        <x:v>45909.4289402778</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1707,7 +1698,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45909.4289402778</x:v>
+        <x:v>45907.4143820949</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1739,7 +1730,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4143820949</x:v>
+        <x:v>45907.4146748843</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1771,7 +1762,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4146748843</x:v>
+        <x:v>45909.4222365741</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1803,7 +1794,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45909.4222365741</x:v>
+        <x:v>45907.4143132292</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1835,7 +1826,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4143132292</x:v>
+        <x:v>45909.4162960648</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1867,7 +1858,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45909.4162960648</x:v>
+        <x:v>45913.7379726505</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1885,38 +1876,6 @@
       <x:c r="S34" s="2" t="s"/>
       <x:c r="T34" s="2" t="s"/>
     </x:row>
-    <x:row r="35" spans="1:20">
-      <x:c r="A35" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B35" s="2" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="C35" s="2" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="D35" s="2" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="E35" s="3">
-        <x:v>45913.7379726505</x:v>
-      </x:c>
-      <x:c r="F35" s="2" t="s"/>
-      <x:c r="G35" s="2" t="s"/>
-      <x:c r="H35" s="2" t="s"/>
-      <x:c r="I35" s="2" t="s"/>
-      <x:c r="J35" s="2" t="s"/>
-      <x:c r="K35" s="2" t="s"/>
-      <x:c r="L35" s="2" t="s"/>
-      <x:c r="M35" s="2" t="s"/>
-      <x:c r="N35" s="2" t="s"/>
-      <x:c r="O35" s="2" t="s"/>
-      <x:c r="P35" s="2" t="s"/>
-      <x:c r="Q35" s="2" t="s"/>
-      <x:c r="R35" s="2" t="s"/>
-      <x:c r="S35" s="2" t="s"/>
-      <x:c r="T35" s="2" t="s"/>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1929,9 +1888,6 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Computer Networks-1 (CMPS405) Location : [3702]3702-60-الجيزة الرئيسي Time : Sunday(14:16)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
-  <x:rowBreaks count="1" manualBreakCount="1">
-    <x:brk id="35" max="1048576" man="1"/>
-  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/CMPS405_Lecture-35566.xlsx
+++ b/downloaded_files/CMPS405_Lecture-35566.xlsx
@@ -57,7 +57,7 @@
     <x:t>احمد محمد فاروق محمد</x:t>
   </x:si>
   <x:si>
-    <x:t>ahmed mohamed farouk mohamed mohamed soltan</x:t>
+    <x:t xml:space="preserve">Ahmed Mohamed Farouk Mohamed  </x:t>
   </x:si>
   <x:si>
     <x:t>1220116</x:t>

--- a/downloaded_files/CMPS405_Lecture-35566.xlsx
+++ b/downloaded_files/CMPS405_Lecture-35566.xlsx
@@ -120,7 +120,7 @@
     <x:t>سيف الدين سامح عبدالرحمن صادق دكروري</x:t>
   </x:si>
   <x:si>
-    <x:t>Seifeldin Sameh Abdelrahman Dakroury</x:t>
+    <x:t>SEIFELDIN SAMEH ABDELRAHMAN SADEQ DAKROURY</x:t>
   </x:si>
   <x:si>
     <x:t>1210174</x:t>
@@ -138,7 +138,7 @@
     <x:t>عبدالرحمن سامح عبد العظيم محمد على</x:t>
   </x:si>
   <x:si>
-    <x:t>abdelrahman sameh abdelazeem</x:t>
+    <x:t>ABDELRAHMAN SAMEH ABDELAZEEM MOHAMED ALY</x:t>
   </x:si>
   <x:si>
     <x:t>1220253</x:t>

--- a/downloaded_files/CMPS405_Lecture-35566.xlsx
+++ b/downloaded_files/CMPS405_Lecture-35566.xlsx
@@ -237,7 +237,7 @@
     <x:t>فرح مدحت محمد حسن شرشر</x:t>
   </x:si>
   <x:si>
-    <x:t>Farah medhat mohamed hassan sharshar</x:t>
+    <x:t>Farah Medhat Mohamed Hassan Sharshar</x:t>
   </x:si>
   <x:si>
     <x:t>1220138</x:t>
@@ -273,7 +273,7 @@
     <x:t>محمد عمرو ابراهيم المصري</x:t>
   </x:si>
   <x:si>
-    <x:t>mohamed amr ebrahim elmasry</x:t>
+    <x:t>Mohamed Amr Ibrahim Elmasry</x:t>
   </x:si>
   <x:si>
     <x:t>1220021</x:t>
@@ -309,7 +309,7 @@
     <x:t>مهند محمد فتحى محمد</x:t>
   </x:si>
   <x:si>
-    <x:t>Mohaned Mohammed fathy</x:t>
+    <x:t xml:space="preserve"> Mohaned Mohammed fathy Mohammed</x:t>
   </x:si>
   <x:si>
     <x:t>1210383</x:t>
@@ -327,7 +327,7 @@
     <x:t>يوسف كامل إسماعيل محمد كامل اسماعيل</x:t>
   </x:si>
   <x:si>
-    <x:t>Youssuf kamel ismail Mohammed</x:t>
+    <x:t>Youssef Kamel Ismail Mohamed Kamel Ismail</x:t>
   </x:si>
 </x:sst>
 </file>

--- a/downloaded_files/CMPS405_Lecture-35566.xlsx
+++ b/downloaded_files/CMPS405_Lecture-35566.xlsx
@@ -120,7 +120,7 @@
     <x:t>سيف الدين سامح عبدالرحمن صادق دكروري</x:t>
   </x:si>
   <x:si>
-    <x:t>SEIFELDIN SAMEH ABDELRAHMAN SADEQ DAKROURY</x:t>
+    <x:t>SEIFELDIN SAMEH ABDELRAHMAN SADEK DAKROURY</x:t>
   </x:si>
   <x:si>
     <x:t>1210174</x:t>

--- a/downloaded_files/CMPS405_Lecture-35566.xlsx
+++ b/downloaded_files/CMPS405_Lecture-35566.xlsx
@@ -210,7 +210,7 @@
     <x:t>عمرو اشرف على محمود حسن</x:t>
   </x:si>
   <x:si>
-    <x:t>AmrAshrafAli</x:t>
+    <x:t>Amr Ashraf Ali Mahmoud Hassan</x:t>
   </x:si>
   <x:si>
     <x:t>4230160</x:t>
